--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-0.5/avg_0.004_scores.xlsx
@@ -40,21 +40,21 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
@@ -70,18 +70,21 @@
     <t>behind</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>seriously</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -91,16 +94,16 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>important</t>
   </si>
   <si>
     <t>good</t>
@@ -109,19 +112,16 @@
     <t>better</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>right</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>social</t>
@@ -130,16 +130,16 @@
     <t>documentary</t>
   </si>
   <si>
+    <t>dilemma</t>
+  </si>
+  <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>dilemma</t>
+    <t>watch</t>
   </si>
   <si>
     <t>media</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>…</t>
@@ -506,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,7 +514,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
         <v>44</v>
@@ -575,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9519230769230769</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -625,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L4">
         <v>25</v>
       </c>
-      <c r="K4">
-        <v>0.9</v>
-      </c>
-      <c r="L4">
-        <v>45</v>
-      </c>
       <c r="M4">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -675,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,16 +746,16 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.7192982456140351</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -775,37 +775,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C7">
+        <v>91</v>
+      </c>
+      <c r="D7">
+        <v>91</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>13</v>
       </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.631578947368421</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L7">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,16 +846,16 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.6266666666666667</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -875,13 +875,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.725</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -893,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.5862068965517241</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -925,13 +925,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6811594202898551</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="C10">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D10">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.5666666666666667</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -975,13 +975,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5217391304347826</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -993,13 +993,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.5185185185185185</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L11">
         <v>14</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1046,16 +1046,16 @@
         <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.375</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L12">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M12">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1075,13 +1075,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.2926829268292683</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L13">
         <v>12</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1125,13 +1125,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4857142857142857</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1143,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.2033898305084746</v>
+        <v>0.1183970856102004</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>47</v>
+        <v>968</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1196,16 +1196,16 @@
         <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.1329690346083789</v>
+        <v>0.06360424028268551</v>
       </c>
       <c r="L15">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>952</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1225,13 +1225,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3829787234042553</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1243,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.06007067137809187</v>
+        <v>0.06031746031746032</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>266</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1275,13 +1275,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.217948717948718</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.05740740740740741</v>
+        <v>0.04814814814814815</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1317,21 +1317,45 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>58</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18">
-        <v>0.04444444444444445</v>
+        <v>0.04383116883116883</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1343,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>301</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>0.04216867469879518</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1369,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>0.03733766233766234</v>
+        <v>0.02995391705069124</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1395,59 +1419,33 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>593</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>0.03110599078341014</v>
+        <v>0.01668806161745828</v>
       </c>
       <c r="L21">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M21">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22">
-        <v>0.01536491677336748</v>
-      </c>
-      <c r="L22">
-        <v>12</v>
-      </c>
-      <c r="M22">
-        <v>12</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
